--- a/Task/formatted.xlsx
+++ b/Task/formatted.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\Robin\Studio\Projects\Robin_RPA-main\Task\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E1B559B-5FED-4546-9296-6B585071C415}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADA5CC1B-2598-48C9-9FC9-7336F8AF7D2F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="264" windowWidth="14196" windowHeight="11424" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1380" yWindow="372" windowWidth="14196" windowHeight="11424" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -175,6 +175,9 @@
   </cellStyleXfs>
   <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -185,9 +188,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -471,10 +471,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Лист1"/>
-  <dimension ref="A1:E40"/>
+  <dimension ref="A1:I24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+      <selection activeCell="I21" sqref="I21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -487,490 +487,351 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="4" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" s="4">
+      <c r="A2" s="5">
         <v>1</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D2" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="E2" s="4">
+      <c r="D2" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E2" s="5">
         <v>6666</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" s="4">
+      <c r="A3" s="5">
         <v>2</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E3" s="5">
+        <v>1127</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" s="5">
+        <v>3</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="E4" s="5">
+        <v>4460</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5" s="5">
+        <v>4</v>
+      </c>
+      <c r="B5" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C5" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="D3" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="E3" s="4">
+      <c r="D5" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E5" s="5">
+        <v>4452</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6" s="5">
+        <v>6</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E6" s="5">
+        <v>2230</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7" s="5">
+        <v>7</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E7" s="5">
+        <v>4496</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8" s="5">
+        <v>8</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E8" s="5">
+        <v>2248</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9" s="5">
+        <v>11</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E9" s="5">
+        <v>1123</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A10" s="5">
+        <v>12</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="E10" s="5">
+        <v>1124</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A11" s="5">
+        <v>14</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="E11" s="5">
+        <v>1127</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="5">
+        <v>18</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E12" s="5">
+        <v>3381</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A13" s="5">
+        <v>19</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="E13" s="5">
+        <v>1134</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A14" s="5">
+        <v>20</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E14" s="5">
+        <v>3411</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A15" s="5">
+        <v>23</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E15" s="5">
+        <v>1141</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A16" s="5">
+        <v>24</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E16" s="5">
+        <v>1142</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A17" s="5">
+        <v>30</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E17" s="5">
         <v>2235</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4" s="4">
-        <v>3</v>
-      </c>
-      <c r="B4" s="4" t="s">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A18" s="5">
+        <v>32</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E18" s="5">
+        <v>1116</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A19" s="5">
+        <v>33</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D19" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E19" s="5">
+        <v>1119</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A20" s="5">
+        <v>34</v>
+      </c>
+      <c r="B20" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="E4" s="4">
-        <v>4452</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5" s="4">
-        <v>4</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C5" s="4" t="s">
+      <c r="C20" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="D5" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="E5" s="4">
-        <v>1137</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A6" s="4">
-        <v>5</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="E6" s="4">
-        <v>3411</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A7" s="4">
-        <v>6</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="E7" s="4">
-        <v>1124</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="4">
-        <v>7</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="E8" s="4">
-        <v>4496</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A9" s="4">
-        <v>8</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D9" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="E9" s="4">
-        <v>2248</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A10" s="4">
-        <v>9</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D10" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="E10" s="4">
-        <v>1142</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A11" s="4">
-        <v>10</v>
-      </c>
-      <c r="B11" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D11" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="E11" s="4">
-        <v>1127</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A12" s="4">
-        <v>11</v>
-      </c>
-      <c r="B12" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D12" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="E12" s="4">
-        <v>3381</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A13" s="4">
-        <v>12</v>
-      </c>
-      <c r="B13" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D13" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="E13" s="4">
-        <v>1127</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A14" s="4">
-        <v>13</v>
-      </c>
-      <c r="B14" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D14" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="E14" s="4">
-        <v>1123</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A15" s="4">
-        <v>14</v>
-      </c>
-      <c r="B15" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C15" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D15" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="E15" s="4">
-        <v>1119</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A16" s="4">
-        <v>15</v>
-      </c>
-      <c r="B16" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C16" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D16" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="E16" s="4">
-        <v>1116</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A17" s="4">
-        <v>16</v>
-      </c>
-      <c r="B17" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C17" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D17" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="E17" s="4">
-        <v>1134</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A18" s="4">
-        <v>17</v>
-      </c>
-      <c r="B18" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C18" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D18" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="E18" s="4">
-        <v>1115</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A19" s="4">
-        <v>18</v>
-      </c>
-      <c r="B19" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D19" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="E19" s="4">
-        <v>2230</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A20" s="4">
-        <v>19</v>
-      </c>
-      <c r="B20" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C20" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D20" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="E20" s="4">
-        <v>1115</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A21" s="5"/>
-      <c r="B21" s="5"/>
-      <c r="C21" s="5"/>
-      <c r="D21" s="5"/>
-      <c r="E21" s="5"/>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A22" s="5"/>
-      <c r="B22" s="5"/>
-      <c r="C22" s="5"/>
-      <c r="D22" s="5"/>
-      <c r="E22" s="5"/>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A23" s="5"/>
-      <c r="B23" s="5"/>
-      <c r="C23" s="5"/>
-      <c r="D23" s="5"/>
-      <c r="E23" s="5"/>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A24" s="5"/>
-      <c r="B24" s="5"/>
-      <c r="C24" s="5"/>
-      <c r="D24" s="5"/>
-      <c r="E24" s="5"/>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A25" s="5"/>
-      <c r="B25" s="5"/>
-      <c r="C25" s="5"/>
-      <c r="D25" s="5"/>
-      <c r="E25" s="5"/>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A26" s="5"/>
-      <c r="B26" s="5"/>
-      <c r="C26" s="5"/>
-      <c r="D26" s="5"/>
-      <c r="E26" s="5"/>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A27" s="5"/>
-      <c r="B27" s="5"/>
-      <c r="C27" s="5"/>
-      <c r="D27" s="5"/>
-      <c r="E27" s="5"/>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A28" s="5"/>
-      <c r="B28" s="5"/>
-      <c r="C28" s="5"/>
-      <c r="D28" s="5"/>
-      <c r="E28" s="5"/>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A29" s="5"/>
-      <c r="B29" s="5"/>
-      <c r="C29" s="5"/>
-      <c r="D29" s="5"/>
-      <c r="E29" s="5"/>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A30" s="5"/>
-      <c r="B30" s="5"/>
-      <c r="C30" s="5"/>
-      <c r="D30" s="5"/>
-      <c r="E30" s="5"/>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A31" s="5"/>
-      <c r="B31" s="5"/>
-      <c r="C31" s="5"/>
-      <c r="D31" s="5"/>
-      <c r="E31" s="5"/>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A32" s="5"/>
-      <c r="B32" s="5"/>
-      <c r="C32" s="5"/>
-      <c r="D32" s="5"/>
-      <c r="E32" s="5"/>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A33" s="5"/>
-      <c r="B33" s="5"/>
-      <c r="C33" s="5"/>
-      <c r="D33" s="5"/>
-      <c r="E33" s="5"/>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A34" s="5"/>
-      <c r="B34" s="5"/>
-      <c r="C34" s="5"/>
-      <c r="D34" s="5"/>
-      <c r="E34" s="5"/>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A35" s="5"/>
-      <c r="B35" s="5"/>
-      <c r="C35" s="5"/>
-      <c r="D35" s="5"/>
-      <c r="E35" s="5"/>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A36" s="5"/>
-      <c r="B36" s="5"/>
-      <c r="C36" s="5"/>
-      <c r="D36" s="5"/>
-      <c r="E36" s="5"/>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A37" s="5"/>
-      <c r="B37" s="5"/>
-      <c r="C37" s="5"/>
-      <c r="D37" s="5"/>
-      <c r="E37" s="5"/>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A38" s="5"/>
-      <c r="B38" s="5"/>
-      <c r="C38" s="5"/>
-      <c r="D38" s="5"/>
-      <c r="E38" s="5"/>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A39" s="5"/>
-      <c r="B39" s="5"/>
-      <c r="C39" s="5"/>
-      <c r="D39" s="5"/>
-      <c r="E39" s="5"/>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A40" s="5"/>
-      <c r="B40" s="5"/>
-      <c r="C40" s="5"/>
-      <c r="D40" s="5"/>
-      <c r="E40" s="5"/>
+      <c r="D20" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E20" s="5">
+        <v>1120</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="I24" s="1"/>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E20">
-    <sortCondition ref="B2"/>
-    <sortCondition ref="C2"/>
-    <sortCondition ref="D2"/>
+    <sortCondition ref="E1"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
